--- a/cra-ecommerce/BackLog.xlsx
+++ b/cra-ecommerce/BackLog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\SelfLearning\PersonalProject\cra-ecommerce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\SelfLearning\PersonalProject\EcommerceManage\cra-ecommerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FD814C-1EEC-4831-BE28-45A655AA8CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E326B8-E542-45AD-92D7-23728877F557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>E-COMMERCE PROJECT - PRODUCT BACKLOG</t>
   </si>
@@ -159,6 +159,73 @@
   </si>
   <si>
     <t>(getProducts)</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa sản phẩm</t>
+  </si>
+  <si>
+    <t>Sau khi nhận được yêu cầu sửa thông tin sản phẩm từ người bán 
+Admin có thể sửa sản phẩm bằng id của sản phẩm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chưa làm được</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :Lập biểu mẫu yêu cầu admin sửa thông tin sản phẩm</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Xóa sản phẩm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xóa Admin </t>
+  </si>
+  <si>
+    <t>Xóa Sales</t>
+  </si>
+  <si>
+    <t>Xóa bằng id</t>
+  </si>
+  <si>
+    <t>Sau khi nhận được yêu cầu xóa  sản phẩm từ người bán 
+Admin có thể xóa sản phẩm bằng id của sản phẩm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chưa làm được</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :Lập biểu mẫu yêu cầu admin xóa sản phẩm</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -375,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -440,6 +507,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -768,11 +841,11 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="C4" s="6">
-        <f>SUM(C6:C32)</f>
+        <f>SUM(C6:C36)</f>
         <v>28</v>
       </c>
       <c r="D4" s="7">
-        <f>SUM(D6:D32)</f>
+        <f>SUM(D6:D36)</f>
         <v>10</v>
       </c>
     </row>
@@ -1003,104 +1076,173 @@
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="13"/>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
-        <v>17</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>25</v>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30" t="s">
+        <v>38</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="13"/>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
-      <c r="B25" s="17" t="s">
-        <v>31</v>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="13"/>
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="26"/>
-      <c r="B26" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="23"/>
-    </row>
-    <row r="27" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A27" s="25">
-        <v>18</v>
-      </c>
+      <c r="A26" s="7">
+        <v>17</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
       <c r="B27" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="6">
-        <v>3</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="25">
-        <v>19</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
+    </row>
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="13"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="25">
-        <v>20</v>
-      </c>
+      <c r="E28" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
       <c r="B29" s="17" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="25">
-        <v>21</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E29" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="26"/>
+      <c r="B30" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="23"/>
+    </row>
+    <row r="31" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A31" s="25">
-        <v>22</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3</v>
+      </c>
       <c r="D31" s="13"/>
-    </row>
-    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E31" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="25">
-        <v>23</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="27" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="25">
+        <v>20</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="27"/>
+    </row>
+    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="25">
+        <v>21</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="25">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="25">
+        <v>23</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E37" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B37" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B38" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B39" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E41" t="s">
         <v>9</v>
       </c>
     </row>

--- a/cra-ecommerce/BackLog.xlsx
+++ b/cra-ecommerce/BackLog.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\SelfLearning\PersonalProject\EcommerceManage\cra-ecommerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E326B8-E542-45AD-92D7-23728877F557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0D7F12-BE46-4D12-AB74-2855FEA24013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BACKLOG" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>E-COMMERCE PROJECT - PRODUCT BACKLOG</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Đăng nhập</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Đăng kí</t>
   </si>
   <si>
@@ -76,11 +73,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ẩn hiển thị 1 số thông tin quan trọng :ps ,role ,...để bảo mật thông tin </t>
-  </si>
-  <si>
-    <t>sử dụng nodemailer để gửi OTP về mail để tạo password mới
-Sử dụng tính năng gửi mail tự động của Goole
-Sử dụng googleAPIs /Nodemailer stmp và OAuth2</t>
   </si>
   <si>
     <t>Khách hàng có thể đăng xuất và xóa luôn access token</t>
@@ -158,9 +150,6 @@
     <t xml:space="preserve">Tìm kiếm sản phẩm </t>
   </si>
   <si>
-    <t>(getProducts)</t>
-  </si>
-  <si>
     <t>Chỉnh sửa sản phẩm</t>
   </si>
   <si>
@@ -227,12 +216,151 @@
       <t xml:space="preserve"> :Lập biểu mẫu yêu cầu admin xóa sản phẩm</t>
     </r>
   </si>
+  <si>
+    <t>sử dụng nodemailer để gửi OTP về mail để tạo password mới
+Sử dụng tính năng gửi mail tự động của Goole
+Sử dụng googleAPIs /Nodemailer stmp và Google OAuth2</t>
+  </si>
+  <si>
+    <t>(getProducts) bao gồm 3 chức năng cơ bản sau : 
++ Pagination products (phân trang) 
++ Filtering products (Lọc sản phẩm theo tên,danh mục và màu sắc,giá (khoảng giá))
++ Sorting products(phân loại sản phẩm : sắp xếp sp theo bất cứ collection nào , tăng dần ,giảm dần ,chữ (a-&gt;z hoặc z-&gt;a))
++ Fields Limiting (ẩn bất kỳ collection nào của sản phẩm nếu muốn hoặc chỉ muốn hiển thị collection nào )</t>
+  </si>
+  <si>
+    <t>Đánh giá sản phẩm</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(ratings) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chưa làm được :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Validate là phải mua hàng thành công thì mới được đánh giá .Ngoài ra, cần accesstoken của kh để khi đánh giá sẽ được cho số sao và bình luận về sản phẩm đó !
+Sau khi sản phẩm nhận tất cả số lượt đánh giá tại thời điểm hiên tại rồi ,thì sẽ cho ra điểm trung bình số sao được đánh giá của sản phẩm đó.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Tạo danh mục sản phẩm </t>
+  </si>
+  <si>
+    <t>Thêm danh mục sản phẩm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chưa làm được</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :Lập biểu mẫu yêu cầu admin tạo danh mục sản phẩm</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Xem danh mục sản phẩm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sửa tên danh mục sản phẩm </t>
+  </si>
+  <si>
+    <t>Xóa danh mục sản phẩm</t>
+  </si>
+  <si>
+    <t>(updateCategory in categoryProducts) Admin sửa bằng id danh mục sp và token admin</t>
+  </si>
+  <si>
+    <t>(deleteCategory in categoryProducts) Admin xóa bằng id danh mục sp và token admin</t>
+  </si>
+  <si>
+    <t>Tạo danh mục diễn đàn</t>
+  </si>
+  <si>
+    <t>(creatCategory in categoryProducts) Admin có thể tạo hoặc tạo theo mong muốn từ người bán 
+ví dụ : Sức khỏe ,Thể thao, Thời trang</t>
+  </si>
+  <si>
+    <t>Sửa tên danh mục diễn đàn</t>
+  </si>
+  <si>
+    <t>(updateCategory in blogCategory) Admin sửa bằng id danh mục sp và token admin</t>
+  </si>
+  <si>
+    <t>Xóa danh mục diễn đàn</t>
+  </si>
+  <si>
+    <t>(deleteCategory in blogCategory) Admin xóa bằng id danh mục sp và token admin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(creatCategory in blogCategory) Admin có thể tạo hoặc tạo theo mong muốn từ người bán 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ví dụ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 1.1 Tết siêu sale ,25.12 Cuối năm sắm sửa ,....</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Xem danh mục diễn đàn trên sàn </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (getCategory in productCategory) Mọi đối tượng</t>
+  </si>
+  <si>
+    <t>(getCategory in blogCategory) Mọi đối tượng</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +387,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -280,76 +428,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -367,153 +451,43 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,10 +768,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -810,441 +785,881 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="1"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="6">
-        <f>SUM(C6:C36)</f>
-        <v>28</v>
-      </c>
-      <c r="D4" s="7">
-        <f>SUM(D6:D36)</f>
+        <f>SUM(C6:C46)</f>
+        <v>34</v>
+      </c>
+      <c r="D4" s="6">
+        <f>SUM(D6:D46)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
-      <c r="B5" s="20" t="s">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7"/>
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
         <v>4</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="6">
         <v>4</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="6">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="15"/>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="16">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6">
         <v>4</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>20</v>
       </c>
       <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="27" t="s">
-        <v>19</v>
+      <c r="D9" s="6"/>
+      <c r="E9" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C10" s="6">
         <v>3</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" t="s">
-        <v>16</v>
+      <c r="D10" s="6"/>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="24">
-        <v>7</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>13</v>
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="6">
         <v>3</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="6">
         <v>2</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+      <c r="A17" s="7"/>
+      <c r="B17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="6">
+        <v>4</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>10</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>13</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>14</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="25" x14ac:dyDescent="0.5">
+      <c r="A24" s="1"/>
+      <c r="B24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>15</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>16</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="6"/>
+      <c r="B27" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+      <c r="B28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="B29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="6"/>
+      <c r="B30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="6"/>
+      <c r="B31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="6"/>
+      <c r="B32" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="6"/>
+      <c r="B33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="6"/>
+      <c r="B34" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="6"/>
+      <c r="B35" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="6"/>
+      <c r="B36" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="6"/>
+      <c r="B37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="6"/>
+      <c r="B38" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="6"/>
+      <c r="B39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+      <c r="A40" s="1"/>
+      <c r="B40" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
+        <v>18</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="6">
+        <v>3</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
+        <v>19</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="6">
+        <v>20</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="6">
+        <v>21</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
+        <v>22</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="6">
         <v>23</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="27"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="27" t="s">
+      <c r="B46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="3"/>
+      <c r="B47" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="3"/>
+      <c r="B48" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="25">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="12">
-        <v>4</v>
-      </c>
-      <c r="D15" s="13">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="25">
-        <v>10</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="27"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="25">
-        <v>11</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="25">
-        <v>12</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="25">
-        <v>13</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="25">
-        <v>14</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="26"/>
-      <c r="B21" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="25">
-        <v>15</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="25">
-        <v>16</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="13"/>
-      <c r="E23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="13"/>
-      <c r="E24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+      <c r="B49" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="13"/>
-      <c r="E25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
-        <v>17</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
-      <c r="B27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
-      <c r="B28" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="26"/>
-      <c r="B30" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="23"/>
-    </row>
-    <row r="31" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A31" s="25">
-        <v>18</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="6">
-        <v>3</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="25">
-        <v>19</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="25">
-        <v>20</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="27"/>
-    </row>
-    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="25">
-        <v>21</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="13"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="25">
-        <v>22</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="13"/>
-    </row>
-    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="25">
-        <v>23</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B37" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B38" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B39" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/cra-ecommerce/BackLog.xlsx
+++ b/cra-ecommerce/BackLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\SelfLearning\PersonalProject\EcommerceManage\cra-ecommerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0D7F12-BE46-4D12-AB74-2855FEA24013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293589A8-E984-453A-8E09-084937E6CD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>E-COMMERCE PROJECT - PRODUCT BACKLOG</t>
   </si>
@@ -320,6 +320,24 @@
     <t>(deleteCategory in blogCategory) Admin xóa bằng id danh mục sp và token admin</t>
   </si>
   <si>
+    <t xml:space="preserve">Xem danh mục diễn đàn trên sàn </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (getCategory in productCategory) Mọi đối tượng</t>
+  </si>
+  <si>
+    <t>(getCategory in blogCategory) Mọi đối tượng</t>
+  </si>
+  <si>
+    <t>Xóa bằng id account Admin đó</t>
+  </si>
+  <si>
+    <t>Tạo tài khoản admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tài khoản của admin chỉ được đăng kí bởi 1 tài khoản admin đã có sẵn trước đó </t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">(creatCategory in blogCategory) Admin có thể tạo hoặc tạo theo mong muốn từ người bán 
 </t>
@@ -343,17 +361,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : 1.1 Tết siêu sale ,25.12 Cuối năm sắm sửa ,....</t>
+      <t xml:space="preserve"> : 1.1 Tết siêu sale ,25.12 Cuối năm sắm sửa ,....
+Diễn đàn bao gồm : tựa đề, mô tả, mã giảm giá, danh mục diễn đàn, </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Xem danh mục diễn đàn trên sàn </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (getCategory in productCategory) Mọi đối tượng</t>
-  </si>
-  <si>
-    <t>(getCategory in blogCategory) Mọi đối tượng</t>
+    <t>Tạo diễn đàn</t>
+  </si>
+  <si>
+    <t>Sửa thông tin diễn đàn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(createNewBlog in Blog) Diễn đàn bao gồm những thông tin : Tên (title) ,mô tả, mã giảm giá(coupon), danh mục diễn đàn, </t>
+  </si>
+  <si>
+    <t>Xóa diễn đàn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(deleteBlog in Blog) Admin xóa bằng _id của diễn đàn </t>
+  </si>
+  <si>
+    <t>(updateBlog in Blog) Admin cần phải cung cấp bearer token và id của blogs để update</t>
+  </si>
+  <si>
+    <t>Xem diễn đàn</t>
+  </si>
+  <si>
+    <t>(getBlogs in Blog) Mọi đối tượng</t>
   </si>
 </sst>
 </file>
@@ -482,12 +516,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,11 +802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -785,13 +819,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -821,18 +855,18 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="6">
-        <f>SUM(C6:C46)</f>
+        <f>SUM(C6:C51)</f>
         <v>34</v>
       </c>
       <c r="D4" s="6">
-        <f>SUM(D6:D46)</f>
+        <f>SUM(D6:D51)</f>
         <v>10</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1"/>
@@ -987,7 +1021,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -995,147 +1029,151 @@
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+      <c r="A18" s="7"/>
+      <c r="B18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C19" s="6">
         <v>4</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D19" s="6">
         <v>2</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+    <row r="20" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
         <v>10</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C20" s="6">
         <v>2</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="10" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="10" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
         <v>13</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
-        <v>14</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="25" x14ac:dyDescent="0.5">
-      <c r="A24" s="1"/>
-      <c r="B24" s="15" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>14</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="25" x14ac:dyDescent="0.5">
+      <c r="A25" s="1"/>
+      <c r="B25" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="6">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
         <v>15</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="6">
-        <v>16</v>
-      </c>
       <c r="B26" s="11" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="3" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
+      <c r="A27" s="6">
+        <v>15</v>
+      </c>
       <c r="B27" s="11" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="6"/>
+      <c r="A28" s="6">
+        <v>16</v>
+      </c>
       <c r="B28" s="11" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1144,305 +1182,325 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="6">
-        <v>17</v>
-      </c>
+      <c r="A29" s="6"/>
       <c r="B29" s="11" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="11" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="6"/>
+      <c r="E30" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>17</v>
+      </c>
       <c r="B31" s="11" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="B32" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
-      <c r="B33" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="6">
-        <v>2</v>
-      </c>
+      <c r="B33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
-      <c r="B34" s="8" t="s">
-        <v>44</v>
+      <c r="B34" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C35" s="6">
+        <v>2</v>
+      </c>
       <c r="D35" s="6"/>
       <c r="E35" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
       <c r="B36" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
       <c r="B37" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="B38" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.4">
-      <c r="A40" s="1"/>
-      <c r="B40" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A41" s="6">
-        <v>18</v>
-      </c>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="6"/>
+      <c r="B40" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="6"/>
       <c r="B41" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="6">
-        <v>3</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="6">
-        <v>19</v>
-      </c>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="6"/>
       <c r="B42" s="8" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="3"/>
+      <c r="E42" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="6">
-        <v>20</v>
-      </c>
+      <c r="A43" s="6"/>
       <c r="B43" s="8" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="6">
-        <v>21</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>18</v>
+      <c r="E43" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="6"/>
+      <c r="B44" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="6">
-        <v>22</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E44" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+      <c r="A45" s="1"/>
+      <c r="B45" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="C46" s="6">
+        <v>3</v>
+      </c>
       <c r="D46" s="6"/>
       <c r="E46" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="6">
+        <v>19</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="6">
+        <v>20</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
+        <v>21</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="6">
+        <v>22</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="6">
+        <v>23</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="10" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="3"/>
-      <c r="B47" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="3"/>
-      <c r="B48" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="3"/>
-      <c r="B49" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
-      <c r="B52" s="3" t="s">
-        <v>59</v>
+      <c r="B52" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
+      <c r="B53" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+      <c r="B54" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="E57" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
@@ -1660,6 +1718,41 @@
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/cra-ecommerce/BackLog.xlsx
+++ b/cra-ecommerce/BackLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\SelfLearning\PersonalProject\EcommerceManage\cra-ecommerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293589A8-E984-453A-8E09-084937E6CD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38FC6A4-72EA-4767-A197-D7ECB9F32627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
   <si>
     <t>E-COMMERCE PROJECT - PRODUCT BACKLOG</t>
   </si>
@@ -388,6 +388,12 @@
   </si>
   <si>
     <t>(getBlogs in Blog) Mọi đối tượng</t>
+  </si>
+  <si>
+    <t>Tìm diễn đàn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(getBlog in Blog) Admin tìm diễn đàn bằng _id của diễn đàn </t>
   </si>
 </sst>
 </file>
@@ -802,11 +808,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -855,11 +861,11 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="6">
-        <f>SUM(C6:C51)</f>
+        <f>SUM(C6:C52)</f>
         <v>34</v>
       </c>
       <c r="D4" s="6">
-        <f>SUM(D6:D51)</f>
+        <f>SUM(D6:D52)</f>
         <v>10</v>
       </c>
       <c r="E4" s="3"/>
@@ -1357,157 +1363,161 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.4">
-      <c r="A45" s="1"/>
-      <c r="B45" s="13" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="6"/>
+      <c r="B45" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+      <c r="A46" s="1"/>
+      <c r="B46" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A46" s="6">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A47" s="6">
         <v>18</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B47" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C47" s="6">
         <v>3</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="10" t="s">
+      <c r="D47" s="6"/>
+      <c r="E47" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="6">
-        <v>19</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="10"/>
-    </row>
-    <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
-        <v>21</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
-        <v>22</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="6">
+        <v>23</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="3"/>
-      <c r="B52" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
-      <c r="B55" s="3" t="s">
-        <v>45</v>
+      <c r="B55" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
@@ -1753,6 +1763,13 @@
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/cra-ecommerce/BackLog.xlsx
+++ b/cra-ecommerce/BackLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\SelfLearning\PersonalProject\EcommerceManage\cra-ecommerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38FC6A4-72EA-4767-A197-D7ECB9F32627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD84A021-66AB-4DB8-A75D-4E1DF2AE4FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
   <si>
     <t>E-COMMERCE PROJECT - PRODUCT BACKLOG</t>
   </si>
@@ -394,6 +394,62 @@
   </si>
   <si>
     <t xml:space="preserve">(getBlog in Blog) Admin tìm diễn đàn bằng _id của diễn đàn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tạo thương hiệu </t>
+  </si>
+  <si>
+    <t>(createBrand in Brand) Admin có thể tạo hoặc tạo theo mong muốn từ người bán 
+ví dụ : Levents ,Pop.pop , ...</t>
+  </si>
+  <si>
+    <t>Yêu cầu tạo thương hiệu</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chưa làm được</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :Lập biểu mẫu yêu cầu admin tạo thương hiệu</t>
+    </r>
+  </si>
+  <si>
+    <t>Xem thương hiệu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (getBrands in Brand) Mọi đối tượng</t>
+  </si>
+  <si>
+    <t>Sửa tên thương hiệu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xóa thương hiệu </t>
+  </si>
+  <si>
+    <t>(updateBrand in Brand) Admin sửa bằng _id của thương hiệu</t>
+  </si>
+  <si>
+    <t>(deleteBrand in Brand) Admin xóa bằng _id của thương hiệu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xem các thương hiệu </t>
+  </si>
+  <si>
+    <t>(getBrands in Brand) Mọi đối tượng</t>
   </si>
 </sst>
 </file>
@@ -808,11 +864,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -861,11 +917,11 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="6">
-        <f>SUM(C6:C52)</f>
+        <f>SUM(C6:C56)</f>
         <v>34</v>
       </c>
       <c r="D4" s="6">
-        <f>SUM(D6:D52)</f>
+        <f>SUM(D6:D56)</f>
         <v>10</v>
       </c>
       <c r="E4" s="3"/>
@@ -1056,510 +1112,536 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.4">
-      <c r="A18" s="7"/>
-      <c r="B18" s="13" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+      <c r="A19" s="7"/>
+      <c r="B19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
         <v>9</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C20" s="6">
         <v>4</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D20" s="6">
         <v>2</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
+    <row r="21" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
         <v>10</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C21" s="6">
         <v>2</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="10" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="10" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
-        <v>11</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
+    <row r="24" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
         <v>13</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="6">
-        <v>14</v>
-      </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="25" x14ac:dyDescent="0.5">
-      <c r="A25" s="1"/>
-      <c r="B25" s="14" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>14</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="25" x14ac:dyDescent="0.5">
+      <c r="A26" s="1"/>
+      <c r="B26" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="6">
-        <v>15</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>15</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="6"/>
+      <c r="A29" s="6">
+        <v>16</v>
+      </c>
       <c r="B29" s="11" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="3" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="3" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="6">
-        <v>17</v>
-      </c>
+      <c r="A31" s="6"/>
       <c r="B31" s="11" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="6"/>
+      <c r="A32" s="6">
+        <v>17</v>
+      </c>
       <c r="B32" s="11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="B34" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
-      <c r="B35" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="6">
-        <v>2</v>
-      </c>
+      <c r="B35" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
       <c r="B36" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C36" s="6">
+        <v>2</v>
+      </c>
       <c r="D36" s="6"/>
       <c r="E36" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
       <c r="B37" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="B38" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="B40" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="B41" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
       <c r="B42" s="8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="B43" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
       <c r="B44" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
       <c r="B45" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="6"/>
+      <c r="B46" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.4">
-      <c r="A46" s="1"/>
-      <c r="B46" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A47" s="6">
-        <v>18</v>
-      </c>
+    <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="6"/>
       <c r="B47" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="6">
-        <v>3</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="10" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="6">
-        <v>19</v>
-      </c>
+      <c r="A48" s="6"/>
       <c r="B48" s="8" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="3"/>
+      <c r="E48" s="10" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="6">
-        <v>20</v>
-      </c>
+      <c r="A49" s="6"/>
       <c r="B49" s="8" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="10"/>
-    </row>
-    <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="6">
-        <v>21</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="E49" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+      <c r="A50" s="1"/>
+      <c r="B50" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A51" s="6">
         <v>18</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="6">
-        <v>22</v>
-      </c>
       <c r="B51" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="C51" s="6">
+        <v>3</v>
+      </c>
       <c r="D51" s="6"/>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E51" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
+        <v>20</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="6">
+        <v>21</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="6">
+        <v>22</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="6">
+        <v>23</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="10" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="3"/>
-      <c r="B53" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="3"/>
-      <c r="B54" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="3"/>
-      <c r="B55" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
-      <c r="B57" s="3" t="s">
-        <v>47</v>
+      <c r="B57" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
-      <c r="B58" s="3" t="s">
-        <v>58</v>
+      <c r="B58" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+      <c r="B59" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
+      <c r="B60" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="B62" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
+      <c r="B63" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="B64" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="E64" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
@@ -1770,6 +1852,34 @@
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/cra-ecommerce/BackLog.xlsx
+++ b/cra-ecommerce/BackLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\SelfLearning\PersonalProject\EcommerceManage\cra-ecommerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD84A021-66AB-4DB8-A75D-4E1DF2AE4FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3020B4-BAC8-409B-A962-3FB2B333F4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="88">
   <si>
     <t>E-COMMERCE PROJECT - PRODUCT BACKLOG</t>
   </si>
@@ -450,6 +450,9 @@
   </si>
   <si>
     <t>(getBrands in Brand) Mọi đối tượng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tạo phíếu mua hàng </t>
   </si>
 </sst>
 </file>
@@ -864,11 +867,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -917,11 +920,11 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="6">
-        <f>SUM(C6:C56)</f>
+        <f>SUM(C6:C57)</f>
         <v>34</v>
       </c>
       <c r="D4" s="6">
-        <f>SUM(D6:D56)</f>
+        <f>SUM(D6:D57)</f>
         <v>10</v>
       </c>
       <c r="E4" s="3"/>
@@ -1476,179 +1479,181 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.4">
-      <c r="A50" s="1"/>
-      <c r="B50" s="13" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="6"/>
+      <c r="B50" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+      <c r="A51" s="1"/>
+      <c r="B51" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A51" s="6">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A52" s="6">
         <v>18</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B52" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C52" s="6">
         <v>3</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="10" t="s">
+      <c r="D52" s="6"/>
+      <c r="E52" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="6">
-        <v>19</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="10"/>
-    </row>
-    <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
-        <v>21</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
-        <v>22</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="6">
+        <v>23</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="3"/>
-      <c r="B57" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
-      <c r="B60" s="3" t="s">
-        <v>45</v>
+      <c r="B60" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
+      <c r="B65" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
+      <c r="E65" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
@@ -1880,6 +1885,13 @@
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
